--- a/Proyecto/Componetes/Reguladores de tensión.xlsx
+++ b/Proyecto/Componetes/Reguladores de tensión.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raula\Desktop\Redes de sensores\Redes-de-sensores\Proyecto\Componetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3B9B2-356D-4F6E-B61A-03BECFFACC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A269275-9E1C-4BD6-8FE9-3973BFE4FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BB7082-02F5-4003-BC7A-1E9B2F33D2D0}"/>
   </bookViews>
@@ -36,36 +36,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>Vout</t>
-  </si>
-  <si>
-    <t>Iout</t>
-  </si>
-  <si>
-    <t>Nº de salidas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+  <si>
+    <t>Topología</t>
+  </si>
+  <si>
+    <t>Vin (V)</t>
+  </si>
+  <si>
+    <t>Vout (V)</t>
+  </si>
+  <si>
+    <t>Iout  (A)</t>
   </si>
   <si>
     <t>Frecuencia de
-conmutación</t>
-  </si>
-  <si>
-    <t>Topología</t>
+conmutación (kHz)</t>
   </si>
   <si>
     <t>Consumo en
-reposo</t>
+reposo (uA)</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Eficiencia (%)</t>
+  </si>
+  <si>
+    <t>3,5-36</t>
+  </si>
+  <si>
+    <t>400-2500</t>
+  </si>
+  <si>
+    <t>A81805KESJSR</t>
+  </si>
+  <si>
+    <t>2,7-5,5</t>
+  </si>
+  <si>
+    <t>ADP2107ACPZ-3.3-R7</t>
+  </si>
+  <si>
+    <t>3-36</t>
+  </si>
+  <si>
+    <t>Buck-boost</t>
+  </si>
+  <si>
+    <t>200-2200</t>
+  </si>
+  <si>
+    <t>3,55-36</t>
+  </si>
+  <si>
+    <t>LM536013QDSXRQ1</t>
+  </si>
+  <si>
+    <t>LM536013QUDSXRQ1</t>
+  </si>
+  <si>
+    <t>LM536023QPWPTQ1</t>
+  </si>
+  <si>
+    <t>LM536033QPWPTQ1</t>
+  </si>
+  <si>
+    <t>LM61480Q3RPHRQ1</t>
+  </si>
+  <si>
+    <t>LM61495Q3RPHRQ1</t>
+  </si>
+  <si>
+    <t>LM62435BPPQRJRRQ1</t>
+  </si>
+  <si>
+    <t>3,3-36</t>
+  </si>
+  <si>
+    <t>LM62440BLPQRJRRQ1</t>
+  </si>
+  <si>
+    <t>LM62460Q3RPHRQ1</t>
+  </si>
+  <si>
+    <t>400-2200</t>
+  </si>
+  <si>
+    <t>LM63635CA3QDRRRQ1</t>
+  </si>
+  <si>
+    <t>LM63635CC3QDRRRQ1</t>
+  </si>
+  <si>
+    <t>2,7-36</t>
+  </si>
+  <si>
+    <t>LM64460BPPQRYFRQ1</t>
+  </si>
+  <si>
+    <t>LMQ62440BPPQRJRRQ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +151,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -90,18 +191,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,45 +731,1254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2959906-E8BD-45C1-93EB-73C55B320568}">
-  <dimension ref="C2:M2"/>
+  <dimension ref="A2:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="I2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
+    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="22">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22">
+        <v>97</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>400</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>400</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="F14" s="6">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <v>400</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="F15" s="6">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2100</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2100</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9:C10 C12:C13 C16:C17" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Proyecto/Componetes/Reguladores de tensión.xlsx
+++ b/Proyecto/Componetes/Reguladores de tensión.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raula\Desktop\Redes de sensores\Redes-de-sensores\Proyecto\Componetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A269275-9E1C-4BD6-8FE9-3973BFE4FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E0E83-27F1-4D24-B315-48B92352EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BB7082-02F5-4003-BC7A-1E9B2F33D2D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Topología</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Buck</t>
   </si>
   <si>
-    <t>Eficiencia (%)</t>
-  </si>
-  <si>
     <t>3,5-36</t>
   </si>
   <si>
@@ -79,15 +76,9 @@
     <t>ADP2107ACPZ-3.3-R7</t>
   </si>
   <si>
-    <t>3-36</t>
-  </si>
-  <si>
     <t>Buck-boost</t>
   </si>
   <si>
-    <t>200-2200</t>
-  </si>
-  <si>
     <t>3,55-36</t>
   </si>
   <si>
@@ -100,30 +91,6 @@
     <t>LM536023QPWPTQ1</t>
   </si>
   <si>
-    <t>LM536033QPWPTQ1</t>
-  </si>
-  <si>
-    <t>LM61480Q3RPHRQ1</t>
-  </si>
-  <si>
-    <t>LM61495Q3RPHRQ1</t>
-  </si>
-  <si>
-    <t>LM62435BPPQRJRRQ1</t>
-  </si>
-  <si>
-    <t>3,3-36</t>
-  </si>
-  <si>
-    <t>LM62440BLPQRJRRQ1</t>
-  </si>
-  <si>
-    <t>LM62460Q3RPHRQ1</t>
-  </si>
-  <si>
-    <t>400-2200</t>
-  </si>
-  <si>
     <t>LM63635CA3QDRRRQ1</t>
   </si>
   <si>
@@ -133,17 +100,78 @@
     <t>2,7-36</t>
   </si>
   <si>
-    <t>LM64460BPPQRYFRQ1</t>
-  </si>
-  <si>
-    <t>LMQ62440BPPQRJRRQ1</t>
+    <t>&gt; 80</t>
+  </si>
+  <si>
+    <t>&gt; 90</t>
+  </si>
+  <si>
+    <t>&gt; 85</t>
+  </si>
+  <si>
+    <t>&gt; 70</t>
+  </si>
+  <si>
+    <t>Nina B306</t>
+  </si>
+  <si>
+    <t>Sensor inercial</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>&gt; 72</t>
+  </si>
+  <si>
+    <t>&gt; 87</t>
+  </si>
+  <si>
+    <t>&gt; 60</t>
+  </si>
+  <si>
+    <t>Eficiencia
+BLE on (%)</t>
+  </si>
+  <si>
+    <t>Eficiencia
+BLE off (%)</t>
+  </si>
+  <si>
+    <t>Consumo
+BLE on (mA)</t>
+  </si>
+  <si>
+    <t>Consumo
+BLE off (mA)</t>
+  </si>
+  <si>
+    <t>&gt; 65</t>
+  </si>
+  <si>
+    <t>&gt; 50</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Baja eficiencia</t>
+  </si>
+  <si>
+    <t>Otro con mayor eficiencia</t>
+  </si>
+  <si>
+    <t>Otro con menor consumo</t>
+  </si>
+  <si>
+    <t>Destaca en algo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +196,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +217,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -334,16 +405,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,7 +436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,8 +448,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,29 +457,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +543,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>789534</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6730CF-45AF-2735-2F3B-AD736E108093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7412467" y="3692704"/>
+          <a:ext cx="2736220" cy="2238206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440608</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6765E6AE-32B5-1B86-A3BB-6EABACE940F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788894" y="3729318"/>
+          <a:ext cx="5281549" cy="1986089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>678181</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B304FD3E-6DC4-C1F2-8651-ED3C199E7339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792481" y="4914901"/>
+          <a:ext cx="3078480" cy="2004591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187791</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9ECBCFF-B424-A57A-DE9A-DE62D787EF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023361" y="4937760"/>
+          <a:ext cx="3068150" cy="2065021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A64FCEF-1564-78DA-9E64-3118CB0A5285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7559040" y="5013960"/>
+          <a:ext cx="2590800" cy="2013340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681317</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>167521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A12CF5A-BE80-6D07-C2B9-A004F35DE3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="932330" y="7485529"/>
+          <a:ext cx="2931458" cy="2220440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233081</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42422</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6F10E3-629E-D390-2AA0-CFC8C502FD4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4204446" y="7566213"/>
+          <a:ext cx="2722870" cy="2088777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450797</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>67431</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC9EDFD-1FA0-C457-F7C1-33E665B3E9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13470111" y="97971"/>
+          <a:ext cx="12331148" cy="4367777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,11 +1219,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2959906-E8BD-45C1-93EB-73C55B320568}">
-  <dimension ref="A2:M120"/>
+  <dimension ref="B2:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -743,463 +1229,427 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>23</v>
+      </c>
+      <c r="G5" s="27">
+        <v>2100</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="21">
+        <f>M4+M3</f>
+        <v>14.981</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N4+N3</f>
+        <v>0.88229999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2100</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="G7" s="5">
+        <v>2100</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
         <v>3.3</v>
       </c>
-      <c r="E3" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E8" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="F8" s="23">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5">
+        <v>400</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="22">
-        <v>92</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.25</v>
+      </c>
+      <c r="F9" s="13">
+        <v>23</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="I9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="22">
-        <v>97</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6">
-        <v>400</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6">
-        <v>400</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="F14" s="6">
-        <v>23</v>
-      </c>
-      <c r="G14" s="6">
-        <v>400</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="F15" s="6">
-        <v>23</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>9</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>4</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2100</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="L11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="21"/>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1207,7 +1657,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1215,7 +1665,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1223,7 +1673,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1231,7 +1681,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1239,7 +1689,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1247,7 +1697,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1255,7 +1705,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1263,7 +1713,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1815,170 +2265,15 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C9:C10 C12:C13 C16:C17" twoDigitTextYear="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>